--- a/ParserPhoneEmail/test.xlsx
+++ b/ParserPhoneEmail/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopsik\source\repos\ParserPhoneEmail\ParserPhoneEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BF68A-B95A-4403-97E6-D186068075B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A807C9A-907D-43DD-8862-5C8236CB4E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8724" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{8B1041D3-00AE-49B3-98FC-031CA50918E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B1041D3-00AE-49B3-98FC-031CA50918E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Название  компании</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">Название  компании</t>
   </si>
   <si>
     <t>ИНН</t>
@@ -45,36 +46,39 @@
     <t>Ссылка на сайт</t>
   </si>
   <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Контекст</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
     <t>Единый расчетно-консультационный центр» (МП ЕРКЦ)</t>
   </si>
   <si>
+    <t>1232242</t>
+  </si>
+  <si>
+    <t>http://erkc.vseversk.ru/about_us</t>
+  </si>
+  <si>
     <t>Хевель</t>
   </si>
   <si>
+    <t>https://ekb.hevelsolar.com/contacts/</t>
+  </si>
+  <si>
     <t>Химпром</t>
   </si>
   <si>
+    <t>https://www.himprom.com/contacts/</t>
+  </si>
+  <si>
     <t>Колесница</t>
   </si>
   <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>Контекст</t>
-  </si>
-  <si>
-    <t>Почта</t>
-  </si>
-  <si>
-    <t>http://erkc.vseversk.ru/about_us</t>
-  </si>
-  <si>
-    <t>https://ekb.hevelsolar.com/contacts/</t>
-  </si>
-  <si>
-    <t>https://www.himprom.com/contacts/</t>
-  </si>
-  <si>
     <t>https://www.kolesnica21.ru/index.php/2014-02-12-10-33-43/2014-02-12-10-34-11</t>
   </si>
   <si>
@@ -82,13 +86,164 @@
   </si>
   <si>
     <t>https://теплицырегионов.рф/contacts</t>
+  </si>
+  <si>
+    <t>Телефон: (382-3) 54-66-78</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>public@ric.tomica.ru</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 54-18-82</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 54-87-96</t>
+  </si>
+  <si>
+    <t>Заместитель директора: Подберезина Светлана Сергеевна телефон: (382-3) 54-87-96</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 99-05-73</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер: Позняк Наталья Александровна телефон: (382-3) 99-05-73</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 54-66-78</t>
+  </si>
+  <si>
+    <t>Секретарь: Карпова Татьяна Васильевна телефон: (382-3) 54-66-78</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 54-67-27</t>
+  </si>
+  <si>
+    <t>Отдел по работе с населением: начальник отдела: Смирнова Марина Владимировна телефон: (382-3) 54-67-27</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 54-72-83</t>
+  </si>
+  <si>
+    <t>Отдел обработки информации: начальник отдела: Зозуля Татьяна Александровна телефон: (382-3) 54-72-83</t>
+  </si>
+  <si>
+    <t>телефон: (382-3) 99-05-02</t>
+  </si>
+  <si>
+    <t>Информационно-вычислительный отдел: начальник отдела: Макаренко Оксана Анатольевна телефон: (382-3) 99-05-02</t>
+  </si>
+  <si>
+    <t>+7 (800) 551-62-84</t>
+  </si>
+  <si>
+    <t>sales.EBR@avelar-solar.com</t>
+  </si>
+  <si>
+    <t>+7 (495) 933 06 03</t>
+  </si>
+  <si>
+    <t>Офис в Москве 117342, г. Москва, ул. Профсоюзная, д. 65, к. 1 Координаты: 55.65336,37.53811 Тел: +7 (495) 933 06 03 Факс: +7 (495) 933 06 90 E-mail: info@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>info@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>sales.EBR@avelar-solar.com Офис в Москве 117342, г. Москва, ул. Профсоюзная, д. 65, к. 1 Координаты: 55.65336,37.53811 Тел: +7 (495) 933 06 03 Факс: +7 (495) 933 06 90 E-mail: info@hevelsolar.com Офис в Москве 117342, г. Москва, ул. Профсоюзная, д. 65, к. 1 Координаты: 55.65336,37.53811</t>
+  </si>
+  <si>
+    <t>+7 (495) 933 06 90</t>
+  </si>
+  <si>
+    <t>sales@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>+7 (8352) 76 50 00</t>
+  </si>
+  <si>
+    <t>По закупкам ООО "Хевел" Тел: +7 (8352) 76 50 00 E-mail: spl@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>zakupki@avelar-solar.com</t>
+  </si>
+  <si>
+    <t>sales@hevelsolar.com По закупкам ГК "Хевел"</t>
+  </si>
+  <si>
+    <t>+7 (800) 551 64 12</t>
+  </si>
+  <si>
+    <t>Зелёные сертификаты РУБЕН СТЕПАНЯН Зам. нач. управления климатическихимпакт-проектов и нефин. отчетности Тел: +7 (800) 551 64 12 доб. 1255 E-mail: R.Stepanian@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>spl@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>zakupki@avelar-solar.com По закупкам ООО "Хевел"</t>
+  </si>
+  <si>
+    <t>smi@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>finance@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>smi@hevelsolar.com Для инвесторов</t>
+  </si>
+  <si>
+    <t>R.Stepanian@hevelsolar.com</t>
+  </si>
+  <si>
+    <t>finance@hevelsolar.com Зелёные сертификаты</t>
+  </si>
+  <si>
+    <t>+7 8352 73-55-55</t>
+  </si>
+  <si>
+    <t>himprom@himprom.com</t>
+  </si>
+  <si>
+    <t>+7 (8352) 73-55-55</t>
+  </si>
+  <si>
+    <t>+7(8352) 73-55-55</t>
+  </si>
+  <si>
+    <t>Контакты Call-центр +7(8352) 73-55-55 E-mail: himprom@himprom.com Презентация ПАО «Химпром» (Формат PPT, 7,30 мб) Химия в нашей жизни Интересные факты химических элементов</t>
+  </si>
+  <si>
+    <t>Тел./факс: 8352/77-84-74</t>
+  </si>
+  <si>
+    <t>oookolesnica@mail.ru</t>
+  </si>
+  <si>
+    <t>тел.: 8352/77-84-74</t>
+  </si>
+  <si>
+    <t>+7 909 121-31-21</t>
+  </si>
+  <si>
+    <t>info@agro-man.ru</t>
+  </si>
+  <si>
+    <t>komi@agro-man.ru</t>
+  </si>
+  <si>
+    <t>job_tks@agro-man.ru</t>
+  </si>
+  <si>
+    <t>komi@agro-man.ru Отдел кадров +7 909 121-31-21 +7 8216 780-780 доб. 3044, доб. 3010 job_tks@agro-man.ru Отдел кадров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,17 +281,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,7 +615,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,12 +624,12 @@
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,56 +640,56 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1232242</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" ht="28.8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1232242</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1232242</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" ht="28.8">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
@@ -539,37 +697,37 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1232242</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" ht="43.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1232242</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="28.8">
+      <c r="A6" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -578,7 +736,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -587,7 +745,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -596,16 +754,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -614,7 +769,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -623,7 +778,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -634,11 +789,495 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{092506A6-2C8A-4F3B-B263-B97F5E187D8B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C74D63A6-5E45-47DB-8B36-DD5DCB6EA64B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{56C4BDFA-C570-48A5-B242-0C8CF6993040}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName=""/>
+  <dimension ref="A2:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1" style="4"/>
+    <col min="2" max="2" width="30" customWidth="1" style="4"/>
+    <col min="3" max="3" width="30" customWidth="1" style="4"/>
+    <col min="4" max="4" width="30" customWidth="1" style="4"/>
+    <col min="5" max="5" width="30" customWidth="1" style="4"/>
+    <col min="6" max="6" width="30" customWidth="1" style="4"/>
+    <col min="7" max="7" width="30" customWidth="1" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ParserPhoneEmail/test.xlsx
+++ b/ParserPhoneEmail/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopsik\source\repos\ParserPhoneEmail\ParserPhoneEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A807C9A-907D-43DD-8862-5C8236CB4E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA403C-DE55-4655-A92A-8D5C9A6FE0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B1041D3-00AE-49B3-98FC-031CA50918E5}"/>
   </bookViews>
